--- a/output/19_learn_rate_0.002/hyperparams.xlsx
+++ b/output/19_learn_rate_0.002/hyperparams.xlsx
@@ -441,25 +441,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="F2" t="n">
-        <v>243</v>
+        <v>459</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002</v>
+        <v>0.0001</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -483,7 +483,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[0.0001]</t>
+          <t>[0.002]</t>
         </is>
       </c>
     </row>
